--- a/Data/EC/NIT-9007517788.xlsx
+++ b/Data/EC/NIT-9007517788.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2C59D18-D57B-498D-89C6-593241F80914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B93CB74E-5F58-436F-B936-D4C6863FF35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{323B833F-2237-4760-91F8-CE6AB693B6E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C7242EE8-DE26-4793-84B6-96A967154A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="101">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,265 +65,247 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73157079</t>
-  </si>
-  <si>
-    <t>JOSE DAVID TORRES AGAMEZ</t>
+    <t>73350171</t>
+  </si>
+  <si>
+    <t>PLINIO HERNANDEZ CANTILLO</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
   </si>
   <si>
     <t>2004</t>
   </si>
   <si>
-    <t>73350171</t>
-  </si>
-  <si>
-    <t>PLINIO HERNANDEZ CANTILLO</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
   </si>
   <si>
     <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>73475824</t>
-  </si>
-  <si>
-    <t>ANIBAL MENDOZA CHAMORRO</t>
-  </si>
-  <si>
-    <t>9007517788</t>
-  </si>
-  <si>
-    <t>1606</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -422,7 +404,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -435,9 +419,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -637,23 +619,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,10 +663,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,7 +719,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF638A0-E2F2-4FFD-FADE-CE59163B2641}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9C8E1E-906E-5FC7-018A-2CC8C84CE97D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,8 +1070,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1840CDC0-CD5E-4BA4-AB0F-D3A96F77FE81}">
-  <dimension ref="B2:J103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1101300-C4CC-444E-84EE-B567DA3A110F}">
+  <dimension ref="B2:J100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1100,7 +1082,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1113,7 +1095,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1158,7 +1140,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1190,12 +1172,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2705969</v>
+        <v>2368017</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1206,17 +1188,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="5">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1243,13 +1225,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1266,10 +1248,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1280,16 +1262,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>26041</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1303,16 +1285,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1326,16 +1308,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1349,16 +1331,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1372,16 +1354,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1395,16 +1377,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1418,16 +1400,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1441,16 +1423,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1464,16 +1446,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1487,16 +1469,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1510,16 +1492,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1533,16 +1515,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1556,16 +1538,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1579,16 +1561,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1602,16 +1584,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1625,16 +1607,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1648,16 +1630,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1671,16 +1653,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1694,16 +1676,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1717,16 +1699,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1740,16 +1722,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1763,16 +1745,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1786,16 +1768,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1809,16 +1791,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1832,16 +1814,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1855,13 +1837,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1878,13 +1860,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1901,13 +1883,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1924,13 +1906,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1947,13 +1929,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1970,13 +1952,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1993,13 +1975,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -2016,13 +1998,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2039,13 +2021,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2062,13 +2044,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2085,13 +2067,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2108,13 +2090,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2131,13 +2113,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2154,13 +2136,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2177,13 +2159,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2200,13 +2182,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2223,13 +2205,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2246,13 +2228,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2269,13 +2251,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2292,13 +2274,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2315,13 +2297,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2338,13 +2320,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2361,13 +2343,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2384,13 +2366,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2407,13 +2389,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2430,13 +2412,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2453,13 +2435,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2476,13 +2458,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2499,16 +2481,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2522,16 +2504,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2545,16 +2527,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2568,16 +2550,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2591,16 +2573,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2614,16 +2596,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2637,16 +2619,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2660,16 +2642,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2683,16 +2665,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2706,16 +2688,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2729,16 +2711,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2752,16 +2734,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2775,16 +2757,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2798,16 +2780,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F83" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2821,16 +2803,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F84" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2844,16 +2826,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F85" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2867,16 +2849,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F86" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2890,16 +2872,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F87" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2913,16 +2895,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F88" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2936,16 +2918,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F89" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2959,16 +2941,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F90" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -2982,16 +2964,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -3005,16 +2987,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F92" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3028,16 +3010,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F93" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3047,123 +3029,56 @@
       <c r="J93" s="20"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F94" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G94" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F95" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G95" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B96" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F96" s="18">
-        <v>29600</v>
-      </c>
-      <c r="G96" s="18">
-        <v>740000</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D97" s="23"/>
-      <c r="E97" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F97" s="24">
-        <v>273240</v>
-      </c>
-      <c r="G97" s="24">
-        <v>0</v>
-      </c>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="H102" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" s="32"/>
-      <c r="H103" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="B94" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F94" s="24">
+        <v>26041</v>
+      </c>
+      <c r="G94" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="32"/>
+      <c r="H99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="32"/>
+      <c r="H100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H99:J99"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
